--- a/reports/xlsx/archangelsk.xlsx
+++ b/reports/xlsx/archangelsk.xlsx
@@ -1,37 +1,110 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\For_Python\Unstructured-field-data-aggregator\reports\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+  <si>
+    <t>Месторождение</t>
+  </si>
+  <si>
+    <t>Год открытия</t>
+  </si>
+  <si>
+    <t>Год начала эксплуатации</t>
+  </si>
+  <si>
+    <t>Местоположение</t>
+  </si>
+  <si>
+    <t>объекты</t>
+  </si>
+  <si>
+    <t>количество залежей</t>
+  </si>
+  <si>
+    <t>керн</t>
+  </si>
+  <si>
+    <t>Архангельское месторождение</t>
+  </si>
+  <si>
+    <t>1974 год</t>
+  </si>
+  <si>
+    <t>1978 год</t>
+  </si>
+  <si>
+    <t>территория новошешминский район республика татарстан</t>
+  </si>
+  <si>
+    <t>шешминский</t>
+  </si>
+  <si>
+    <t>да</t>
+  </si>
+  <si>
+    <t>каширский</t>
+  </si>
+  <si>
+    <t>верейский</t>
+  </si>
+  <si>
+    <t>башкирский</t>
+  </si>
+  <si>
+    <t>алексинский</t>
+  </si>
+  <si>
+    <t>тульский</t>
+  </si>
+  <si>
+    <t>бобриковский</t>
+  </si>
+  <si>
+    <t>турнейский</t>
+  </si>
+  <si>
+    <t>кыновско-пашийский</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +119,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,268 +446,182 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="28.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Месторождение</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Год открытия</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Год начала эксплуатации</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Местоположение</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>объекты</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>количество залежей</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>керн</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Архангельское месторождение</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1974 год</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1978 год</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>территория новошешминский район республика татарстан</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>шешминский</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>да</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>каширский</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1">
         <v>8</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>да</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>верейский</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>12</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>да</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>башкирский</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1">
         <v>9</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>да</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>алексинский</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1">
         <v>20</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>да</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>тульский</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1">
         <v>7</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>да</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>бобриковский</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1">
         <v>16</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>да</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="H8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>турнейский</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="F9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="1">
         <v>13</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>да</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>кыновско-пашийский</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>да</t>
-        </is>
+      <c r="H10" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/reports/xlsx/archangelsk.xlsx
+++ b/reports/xlsx/archangelsk.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\For_Python\Unstructured-field-data-aggregator\reports\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5208"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Месторождение</t>
   </si>
@@ -63,83 +58,71 @@
     <t>шешминский</t>
   </si>
   <si>
+    <t>каширский</t>
+  </si>
+  <si>
+    <t>верейский</t>
+  </si>
+  <si>
+    <t>башкирский</t>
+  </si>
+  <si>
+    <t>алексинский</t>
+  </si>
+  <si>
+    <t>тульский</t>
+  </si>
+  <si>
+    <t>турнейский</t>
+  </si>
+  <si>
+    <t>кыновско-пашийский</t>
+  </si>
+  <si>
     <t>да</t>
   </si>
   <si>
-    <t>каширский</t>
+    <t>66,1</t>
   </si>
   <si>
     <t>81,6</t>
   </si>
   <si>
+    <t>76,5</t>
+  </si>
+  <si>
+    <t>70,1</t>
+  </si>
+  <si>
+    <t>68,9</t>
+  </si>
+  <si>
+    <t>19,3</t>
+  </si>
+  <si>
     <t>18,7</t>
   </si>
   <si>
-    <t>верейский</t>
-  </si>
-  <si>
-    <t>башкирский</t>
+    <t>69,3</t>
   </si>
   <si>
     <t>13,5</t>
   </si>
   <si>
-    <t>алексинский</t>
-  </si>
-  <si>
-    <t>70,1</t>
-  </si>
-  <si>
     <t>12,4</t>
   </si>
   <si>
-    <t>тульский</t>
-  </si>
-  <si>
     <t>24,1</t>
   </si>
   <si>
-    <t>бобриковский</t>
-  </si>
-  <si>
-    <t>84,6</t>
-  </si>
-  <si>
-    <t>20,6</t>
-  </si>
-  <si>
-    <t>турнейский</t>
-  </si>
-  <si>
-    <t>68,9</t>
-  </si>
-  <si>
     <t>12,6</t>
-  </si>
-  <si>
-    <t>кыновско-пашийский</t>
-  </si>
-  <si>
-    <t>69,5 (неправильное значение)</t>
-  </si>
-  <si>
-    <t>76,5 (неправильное значение)</t>
-  </si>
-  <si>
-    <t>(не вывело значение, а оно есть)</t>
-  </si>
-  <si>
-    <t>69,3 (неправильное значение)</t>
-  </si>
-  <si>
-    <t>30,1 (неправильное значение)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,27 +133,18 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -200,34 +174,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -515,245 +472,203 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:10">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2">
         <v>4</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3">
-        <v>8</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="3">
-        <v>12</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="3">
-        <v>9</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="3" t="s">
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="3">
-        <v>20</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="3">
-        <v>7</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="3">
-        <v>16</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="3">
-        <v>13</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="G9">
         <v>1</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>14</v>
+      <c r="H9" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/reports/xlsx/archangelsk.xlsx
+++ b/reports/xlsx/archangelsk.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\For_Python\Unstructured-field-data-aggregator\reports\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>Месторождение</t>
   </si>
@@ -43,6 +48,9 @@
     <t>пористость</t>
   </si>
   <si>
+    <t>КИН</t>
+  </si>
+  <si>
     <t>Архангельское месторождение</t>
   </si>
   <si>
@@ -88,22 +96,28 @@
     <t>81,6</t>
   </si>
   <si>
+    <t>73,4</t>
+  </si>
+  <si>
     <t>76,5</t>
   </si>
   <si>
     <t>70,1</t>
   </si>
   <si>
+    <t>86,5</t>
+  </si>
+  <si>
     <t>68,9</t>
   </si>
   <si>
-    <t>19,3</t>
-  </si>
-  <si>
-    <t>18,7</t>
-  </si>
-  <si>
-    <t>69,3</t>
+    <t>29.5</t>
+  </si>
+  <si>
+    <t>18,6</t>
+  </si>
+  <si>
+    <t>15,2</t>
   </si>
   <si>
     <t>13,5</t>
@@ -116,13 +130,31 @@
   </si>
   <si>
     <t>12,6</t>
+  </si>
+  <si>
+    <t>0,360 доли единиц</t>
+  </si>
+  <si>
+    <t>0,250 доли единиц</t>
+  </si>
+  <si>
+    <t>0,291 долей единиц 0,210 долей единиц 0,250 долей единиц</t>
+  </si>
+  <si>
+    <t>0,270 доли единиц</t>
+  </si>
+  <si>
+    <t>0,465 доли единиц</t>
+  </si>
+  <si>
+    <t>0,316 доли единиц</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,24 +206,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -229,9 +272,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,9 +306,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -297,9 +341,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -472,200 +517,249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="19.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2">
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1">
+        <v>7</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1">
+        <v>13</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3">
-        <v>8</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>21</v>
+      <c r="K9" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/reports/xlsx/archangelsk.xlsx
+++ b/reports/xlsx/archangelsk.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\For_Python\Unstructured-field-data-aggregator\reports\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>Месторождение</t>
   </si>
@@ -49,6 +44,9 @@
   </si>
   <si>
     <t>КИН</t>
+  </si>
+  <si>
+    <t>Квыт</t>
   </si>
   <si>
     <t>Архангельское месторождение</t>
@@ -153,8 +151,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,35 +204,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -272,9 +259,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,10 +293,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,10 +327,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -517,249 +502,236 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="9" max="9" width="19.21875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:12">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1">
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1">
-        <v>8</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="1">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="1">
-        <v>9</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="1">
-        <v>20</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="1">
-        <v>7</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="1">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>42</v>
+      <c r="K9" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
